--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1213.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1213.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7428844921034538</v>
+        <v>1.175204038619995</v>
       </c>
       <c r="B1">
-        <v>2.159849792950487</v>
+        <v>2.200358867645264</v>
       </c>
       <c r="C1">
-        <v>4.025974158010415</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.597796796806519</v>
+        <v>2.368507623672485</v>
       </c>
       <c r="E1">
-        <v>1.444176540892964</v>
+        <v>1.227415084838867</v>
       </c>
     </row>
   </sheetData>
